--- a/data-quality-criteria_v02.xlsx
+++ b/data-quality-criteria_v02.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>Criteria</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>14, 15, 16, 19, 20</t>
+  </si>
+  <si>
+    <t>funModeling</t>
   </si>
 </sst>
 </file>
@@ -183,7 +186,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="00000"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -245,7 +248,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -529,13 +532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +550,7 @@
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -587,8 +590,11 @@
       <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -605,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -619,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -633,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -668,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -679,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -704,8 +710,11 @@
       <c r="K7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -721,8 +730,11 @@
       <c r="M8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -748,8 +760,11 @@
       <c r="L9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -777,8 +792,11 @@
       <c r="L10" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -815,8 +833,11 @@
       <c r="M11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -833,7 +854,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -847,7 +868,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -862,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -893,8 +914,11 @@
       <c r="K15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -912,6 +936,9 @@
       </c>
       <c r="K16" t="s">
         <v>42</v>
+      </c>
+      <c r="N16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">

--- a/data-quality-criteria_v02.xlsx
+++ b/data-quality-criteria_v02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2910" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2910" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
   <si>
     <t>Criteria</t>
   </si>
@@ -56,15 +56,9 @@
     <t>dlookr</t>
   </si>
   <si>
-    <t>13, 14, 16</t>
-  </si>
-  <si>
     <t>validate</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
     <t>MOQA</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>arsenal</t>
   </si>
   <si>
-    <t xml:space="preserve">1, 2 </t>
-  </si>
-  <si>
     <t>Integrity: Structural data set error</t>
   </si>
   <si>
@@ -113,82 +104,128 @@
     <t>Accuracy: Disagreement of repeated measurements</t>
   </si>
   <si>
-    <t>4, 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21 - 22  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23 - 28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29 - 31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32 - 34 </t>
-  </si>
-  <si>
     <t>Data summary/overview</t>
   </si>
   <si>
     <t>Metadata usage (or similar)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 14 -20  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10 - 13  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6 - 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 - 3  </t>
-  </si>
-  <si>
     <t xml:space="preserve">ExPanDaR </t>
   </si>
   <si>
     <t>explore</t>
   </si>
   <si>
-    <t>30, 31</t>
-  </si>
-  <si>
-    <t>23, 26</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>29, 30</t>
-  </si>
-  <si>
-    <t>6, 7</t>
-  </si>
-  <si>
-    <t>1, 2</t>
-  </si>
-  <si>
-    <t>Descriptive statistics?</t>
-  </si>
-  <si>
-    <t>14, 15, 16, 19, 20</t>
-  </si>
-  <si>
     <t>funModeling</t>
+  </si>
+  <si>
+    <t>inspectdf</t>
+  </si>
+  <si>
+    <t>4007, 4008</t>
+  </si>
+  <si>
+    <t>Descriptive statistics</t>
+  </si>
+  <si>
+    <t>visdat</t>
+  </si>
+  <si>
+    <t>xray</t>
+  </si>
+  <si>
+    <t>pointblank</t>
+  </si>
+  <si>
+    <t>skimr</t>
+  </si>
+  <si>
+    <t>StatMeasures</t>
+  </si>
+  <si>
+    <t>brinton</t>
+  </si>
+  <si>
+    <t>pguIMP</t>
+  </si>
+  <si>
+    <t>assertr</t>
+  </si>
+  <si>
+    <t>1001, 1002</t>
+  </si>
+  <si>
+    <t>1001 - 1003</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>1004, 1005</t>
+  </si>
+  <si>
+    <t>1006 - 1008</t>
+  </si>
+  <si>
+    <t>2002 - 2005</t>
+  </si>
+  <si>
+    <t>3001 - 3007</t>
+  </si>
+  <si>
+    <t>3008, 3009</t>
+  </si>
+  <si>
+    <t>4001 - 4006</t>
+  </si>
+  <si>
+    <t>4007 - 4009</t>
+  </si>
+  <si>
+    <t>4010 - 4012</t>
+  </si>
+  <si>
+    <t>4001 - 4004</t>
+  </si>
+  <si>
+    <t>1006, 1007</t>
+  </si>
+  <si>
+    <t>4001, 4006</t>
+  </si>
+  <si>
+    <t>4008, 4009</t>
+  </si>
+  <si>
+    <t>3001, 3003</t>
+  </si>
+  <si>
+    <t>3001, 3002, 3003, 3006, 3007</t>
+  </si>
+  <si>
+    <t>1002, 1003</t>
+  </si>
+  <si>
+    <t>1001, 1003</t>
+  </si>
+  <si>
+    <t>1006, 1008</t>
+  </si>
+  <si>
+    <t>3001 - 3004, 3006 - 3007</t>
+  </si>
+  <si>
+    <t>4004, 4005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,13 +235,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -229,11 +259,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -245,15 +274,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,9 +573,11 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -567,34 +594,61 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -610,10 +664,19 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -624,8 +687,14 @@
       <c r="J3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -639,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -655,9 +724,7 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" t="s">
         <v>7</v>
       </c>
@@ -673,8 +740,14 @@
       <c r="K5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -684,10 +757,13 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -713,269 +789,400 @@
       <c r="N7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="O7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>1003</v>
+      </c>
+      <c r="E9">
+        <v>1003</v>
+      </c>
+      <c r="J9">
+        <v>1002</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9">
+        <v>1001</v>
+      </c>
+      <c r="P9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10">
+        <v>1005</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>1006</v>
+      </c>
+      <c r="E11">
+        <v>1006</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <v>1006</v>
+      </c>
+      <c r="K11">
+        <v>1006</v>
+      </c>
+      <c r="L11">
+        <v>1006</v>
+      </c>
+      <c r="N11">
+        <v>1006</v>
+      </c>
+      <c r="O11">
+        <v>1006</v>
+      </c>
+      <c r="P11">
+        <v>1006</v>
+      </c>
+      <c r="Q11">
+        <v>1006</v>
+      </c>
+      <c r="R11" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11">
+        <v>1006</v>
+      </c>
+      <c r="T11">
+        <v>1006</v>
+      </c>
+      <c r="V11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="B12">
+        <v>2001</v>
+      </c>
+      <c r="C12">
+        <v>2001</v>
+      </c>
+      <c r="D12">
+        <v>2001</v>
+      </c>
+      <c r="E12">
+        <v>2001</v>
+      </c>
+      <c r="F12">
+        <v>2001</v>
+      </c>
+      <c r="G12">
+        <v>2001</v>
+      </c>
+      <c r="H12">
+        <v>2001</v>
+      </c>
+      <c r="I12">
+        <v>2001</v>
+      </c>
+      <c r="K12">
+        <v>2001</v>
+      </c>
+      <c r="L12">
+        <v>2001</v>
+      </c>
+      <c r="M12">
+        <v>2001</v>
+      </c>
+      <c r="N12">
+        <v>2001</v>
+      </c>
+      <c r="O12">
+        <v>2001</v>
+      </c>
+      <c r="P12">
+        <v>2001</v>
+      </c>
+      <c r="Q12">
+        <v>2001</v>
+      </c>
+      <c r="R12">
+        <v>2001</v>
+      </c>
+      <c r="S12">
+        <v>2001</v>
+      </c>
+      <c r="T12">
+        <v>2001</v>
+      </c>
+      <c r="U12">
+        <v>2001</v>
+      </c>
+      <c r="V12">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5005</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13">
+        <v>2005</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="R14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="F15">
+        <v>3008</v>
+      </c>
+      <c r="G15">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>4004</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>4004</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16">
+        <v>4004</v>
+      </c>
+      <c r="Q16">
+        <v>4004</v>
+      </c>
+      <c r="S16" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16">
+        <v>4001</v>
+      </c>
+      <c r="U16">
+        <v>4004</v>
+      </c>
+      <c r="V16">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" t="s">
         <v>44</v>
       </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10" s="6">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="6">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>9</v>
-      </c>
-      <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>9</v>
-      </c>
-      <c r="N11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12">
-        <v>13</v>
-      </c>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="F14">
-        <v>21</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15">
-        <v>26</v>
-      </c>
-      <c r="I15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
